--- a/ImperialNova/Content/DemoFiles/DemoImportProducts.xlsx
+++ b/ImperialNova/Content/DemoFiles/DemoImportProducts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Retail Price</t>
   </si>
   <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
     <t>Quantity In</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Export date</t>
+    <t>Stock Alert</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,12 +88,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,6 +357,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
